--- a/pred_ohlcv/54_21/2019-10-17 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>2174660.606413929</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2263799.307113929</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2253646.505113929</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2231849.958713929</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2233145.38621551</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2455781.74558044</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2562364.15658044</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3024228.09185882</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3647500.250671459</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3878188.805471459</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3778630.27577146</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3643909.21677146</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3597139.53477146</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3540697.683171459</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2453597.931195709</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2519531.94829571</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2414213.61669571</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2512134.96229571</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2556412.93039571</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2499476.16499571</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2523497.27589571</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2523507.27589571</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2472408.50039571</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2481116.28269571</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2448458.31639571</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2464612.67429571</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2464622.67429571</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2456935.98709571</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2453175.72619571</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3062921.46429571</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1524686.647108029</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1524686.647108029</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1881767.050595709</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1881062.050595709</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2008740.318195709</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2020870.677795709</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>2020263.147095709</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1898528.772295709</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1945757.545295709</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1945569.545295709</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1949911.287595709</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1899305.585395709</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1899519.606595709</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1903209.357095709</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1823662.218674319</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1823672.218674319</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1686861.183274319</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1666871.183274319</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>1656872.526074319</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>1656882.526074319</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1654382.526074319</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>1654392.526074319</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1653789.089774319</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2455119.659856419</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3176925.812756419</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3174571.479856419</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3048991.810256419</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2961950.602256419</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2961975.602256419</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2961932.602256419</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>3108625.396102129</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>3108610.396102129</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>3026838.125202129</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>3039821.643702128</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>3081445.596120558</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3132434.405120558</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3164594.833320558</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3059490.833320558</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2993899.759320558</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2994398.759320558</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2970254.982420558</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2960689.034920558</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2939248.034920558</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>2954904.365820558</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 HDAC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>2174660.606413929</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>2182915.089113929</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2263799.307113929</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>2253646.505113929</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>2231849.958713929</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>2163884.893113929</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>2213894.919613929</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2221842.08891551</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2233145.38621551</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2455781.74558044</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2562364.15658044</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3024228.09185882</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>3770412.245271459</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>3647500.250671459</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3869766.686671459</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>3862004.226071459</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3878188.805471459</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3878230.50167146</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3872847.19357146</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>3912305.400571459</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3791413.097671459</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>3778630.27577146</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>3643909.21677146</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>3597139.53477146</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3540697.683171459</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>3540737.39667146</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3556912.546171459</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2453597.931195709</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2519531.94829571</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2414213.61669571</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2512134.96229571</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2556412.93039571</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2499476.16499571</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2523497.27589571</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2523507.27589571</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2468372.79659571</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2472408.50039571</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2481116.28269571</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2448458.31639571</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2468014.42549571</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2464612.67429571</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2464622.67429571</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2456935.98709571</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2453175.72619571</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2453295.42479571</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>3062921.46429571</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1524724.647108029</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1579468.441695709</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1628342.842295709</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1628342.842295709</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>1628513.842295709</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>1628493.842295709</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>1628666.807995709</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>1665956.416395709</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>1663995.404795709</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>1663975.404795709</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>1663975.404795709</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>1664125.404795709</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>1664115.404795709</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>1881767.050595709</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>1881038.050595709</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>1880961.050595709</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>1881062.050595709</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>1881611.050595709</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>1885166.582395709</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>1864051.582395709</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>2008740.318195709</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>2020870.677795709</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>2004251.183295709</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>2020263.147095709</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>1988557.527295709</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>1957886.415795709</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>1899916.772295709</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>1898528.772295709</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>1898618.772295709</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1893944.510995709</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>1884541.545295709</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1895736.545295709</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>1945757.545295709</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1945569.545295709</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1949991.287595709</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>1949911.287595709</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1899305.585395709</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1900305.585395709</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1899519.606595709</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1903209.357095709</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1823662.218674319</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1823672.218674319</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1686861.183274319</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>1666861.183274319</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>1666871.183274319</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>1656872.526074319</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>1656882.526074319</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>1654382.526074319</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>1654392.526074319</v>
       </c>
       <c r="H491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>1653789.089774319</v>
       </c>
       <c r="H492">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2455119.659856419</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>3176925.812756419</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>3174571.479856419</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>3048991.810256419</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2961950.602256419</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2961975.602256419</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2961932.602256419</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2973876.170702129</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>3108625.396102129</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>3108610.396102129</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>3026838.125202129</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>3039821.643702128</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>3081445.596120558</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3076822.132820558</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3132434.405120558</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3131952.405120558</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3164594.833320558</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3059490.833320558</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>2993899.759320558</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>2994398.759320558</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>2970254.982420558</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>2960689.034920558</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>2939248.034920558</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>2954904.365820558</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
